--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H2">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I2">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J2">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N2">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O2">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P2">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q2">
-        <v>13.757467306544</v>
+        <v>5.061043400218334</v>
       </c>
       <c r="R2">
-        <v>123.817205758896</v>
+        <v>45.549390601965</v>
       </c>
       <c r="S2">
-        <v>0.2003172641883189</v>
+        <v>0.1087869294910312</v>
       </c>
       <c r="T2">
-        <v>0.2505997806734809</v>
+        <v>0.1398818051862609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H3">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I3">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J3">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P3">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q3">
-        <v>0.619109685688</v>
+        <v>0.2909634787544444</v>
       </c>
       <c r="R3">
-        <v>5.571987171192</v>
+        <v>2.61867130879</v>
       </c>
       <c r="S3">
-        <v>0.009014621347529461</v>
+        <v>0.006254248569842217</v>
       </c>
       <c r="T3">
-        <v>0.01127742105354239</v>
+        <v>0.008041918124964137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H4">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I4">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J4">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N4">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O4">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P4">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q4">
-        <v>0.414946220624</v>
+        <v>0.4604755721805555</v>
       </c>
       <c r="R4">
-        <v>3.734515985616</v>
+        <v>4.144280149625</v>
       </c>
       <c r="S4">
-        <v>0.00604187455790967</v>
+        <v>0.009897904373036457</v>
       </c>
       <c r="T4">
-        <v>0.007558472032872035</v>
+        <v>0.01272705037028802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H5">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I5">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J5">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N5">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O5">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P5">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q5">
-        <v>15.889097160222</v>
+        <v>4.6548363300075</v>
       </c>
       <c r="R5">
-        <v>95.334582961332</v>
+        <v>27.929017980045</v>
       </c>
       <c r="S5">
-        <v>0.2313551181069549</v>
+        <v>0.1000555244404683</v>
       </c>
       <c r="T5">
-        <v>0.1929523884364598</v>
+        <v>0.08576978529235678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H6">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I6">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J6">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N6">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O6">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P6">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q6">
-        <v>1.087396318736</v>
+        <v>0.2090387965922222</v>
       </c>
       <c r="R6">
-        <v>9.786566868624</v>
+        <v>1.88134916933</v>
       </c>
       <c r="S6">
-        <v>0.01583316542239083</v>
+        <v>0.004493280738273665</v>
       </c>
       <c r="T6">
-        <v>0.01980751783075448</v>
+        <v>0.005777607878253365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.231519</v>
       </c>
       <c r="I7">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J7">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N7">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O7">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P7">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q7">
-        <v>12.35142096890978</v>
+        <v>9.668244258935667</v>
       </c>
       <c r="R7">
-        <v>111.162788720188</v>
+        <v>87.01419833042101</v>
       </c>
       <c r="S7">
-        <v>0.1798443566828133</v>
+        <v>0.2078185313434633</v>
       </c>
       <c r="T7">
-        <v>0.2249878787167681</v>
+        <v>0.2672198898478684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.231519</v>
       </c>
       <c r="I8">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J8">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P8">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q8">
         <v>0.5558351827028889</v>
@@ -948,10 +948,10 @@
         <v>5.002516644326</v>
       </c>
       <c r="S8">
-        <v>0.008093305305235544</v>
+        <v>0.01194765546304642</v>
       </c>
       <c r="T8">
-        <v>0.01012484142409636</v>
+        <v>0.01536268761085136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.231519</v>
       </c>
       <c r="I9">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J9">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N9">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O9">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P9">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q9">
-        <v>0.3725377161497778</v>
+        <v>0.879658591136111</v>
       </c>
       <c r="R9">
-        <v>3.352839445348</v>
+        <v>7.916927320225</v>
       </c>
       <c r="S9">
-        <v>0.005424380406892979</v>
+        <v>0.01890822693320031</v>
       </c>
       <c r="T9">
-        <v>0.006785977962333687</v>
+        <v>0.0243128189081354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.231519</v>
       </c>
       <c r="I10">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J10">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N10">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O10">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P10">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q10">
-        <v>14.26519311068683</v>
+        <v>8.8922562137955</v>
       </c>
       <c r="R10">
-        <v>85.591158664121</v>
+        <v>53.353537282773</v>
       </c>
       <c r="S10">
-        <v>0.2077100670769239</v>
+        <v>0.1911386987324834</v>
       </c>
       <c r="T10">
-        <v>0.1732321889946765</v>
+        <v>0.16384827567517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.231519</v>
       </c>
       <c r="I11">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J11">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N11">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O11">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P11">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q11">
-        <v>0.9762617924857777</v>
+        <v>0.3993323086224445</v>
       </c>
       <c r="R11">
-        <v>8.786356132371999</v>
+        <v>3.593990777602</v>
       </c>
       <c r="S11">
-        <v>0.01421497773135267</v>
+        <v>0.008583632319716223</v>
       </c>
       <c r="T11">
-        <v>0.01778314173862963</v>
+        <v>0.0110371162193343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H12">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I12">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J12">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N12">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O12">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P12">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q12">
-        <v>3.632997156360001</v>
+        <v>1.147393976412333</v>
       </c>
       <c r="R12">
-        <v>21.79798293816</v>
+        <v>10.326545787711</v>
       </c>
       <c r="S12">
-        <v>0.05289869384750844</v>
+        <v>0.02466318854428667</v>
       </c>
       <c r="T12">
-        <v>0.04411801825074461</v>
+        <v>0.03171273747098776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H13">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I13">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J13">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.241754</v>
       </c>
       <c r="O13">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P13">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q13">
-        <v>0.16349111922</v>
+        <v>0.06596460778511111</v>
       </c>
       <c r="R13">
-        <v>0.98094671532</v>
+        <v>0.5936814700659999</v>
       </c>
       <c r="S13">
-        <v>0.002380532186012064</v>
+        <v>0.001417906658479323</v>
       </c>
       <c r="T13">
-        <v>0.001985386685193398</v>
+        <v>0.00182319092837397</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H14">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I14">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J14">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N14">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O14">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P14">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q14">
-        <v>0.10957674156</v>
+        <v>0.1043948561638889</v>
       </c>
       <c r="R14">
-        <v>0.65746044936</v>
+        <v>0.9395537054749998</v>
       </c>
       <c r="S14">
-        <v>0.001595505378924555</v>
+        <v>0.002243963340886859</v>
       </c>
       <c r="T14">
-        <v>0.001330666795468905</v>
+        <v>0.002885361728321646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H15">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I15">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J15">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N15">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O15">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P15">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q15">
-        <v>4.195906376805</v>
+        <v>1.0553023840905</v>
       </c>
       <c r="R15">
-        <v>16.78362550722</v>
+        <v>6.331814304542999</v>
       </c>
       <c r="S15">
-        <v>0.0610950015336103</v>
+        <v>0.0226836833773877</v>
       </c>
       <c r="T15">
-        <v>0.03396921167164185</v>
+        <v>0.01944494982959124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08827633333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.264829</v>
+      </c>
+      <c r="I16">
+        <v>0.05202741788283973</v>
+      </c>
+      <c r="J16">
+        <v>0.05717608694995093</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5368526666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.610558</v>
+      </c>
+      <c r="O16">
+        <v>0.01957959866647858</v>
+      </c>
+      <c r="P16">
+        <v>0.022909000292778</v>
+      </c>
+      <c r="Q16">
+        <v>0.04739138495355556</v>
+      </c>
+      <c r="R16">
+        <v>0.4265224645819999</v>
+      </c>
+      <c r="S16">
+        <v>0.001018675961799173</v>
+      </c>
+      <c r="T16">
+        <v>0.001309846992676326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4583675</v>
+      </c>
+      <c r="H17">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J17">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.997753</v>
+      </c>
+      <c r="N17">
+        <v>38.993259</v>
+      </c>
+      <c r="O17">
+        <v>0.4740421406233454</v>
+      </c>
+      <c r="P17">
+        <v>0.5546503645614554</v>
+      </c>
+      <c r="Q17">
+        <v>5.957747548227501</v>
+      </c>
+      <c r="R17">
+        <v>35.746485289365</v>
+      </c>
+      <c r="S17">
+        <v>0.1280615500010194</v>
+      </c>
+      <c r="T17">
+        <v>0.1097771633222418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4583675</v>
+      </c>
+      <c r="H18">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J18">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7472513333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.241754</v>
+      </c>
+      <c r="O18">
+        <v>0.02725306609819269</v>
+      </c>
+      <c r="P18">
+        <v>0.03188729809316786</v>
+      </c>
+      <c r="Q18">
+        <v>0.3425157255316666</v>
+      </c>
+      <c r="R18">
+        <v>2.05509435319</v>
+      </c>
+      <c r="S18">
+        <v>0.007362362093432231</v>
+      </c>
+      <c r="T18">
+        <v>0.006311177913759111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4583675</v>
+      </c>
+      <c r="H19">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J19">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.182591666666666</v>
+      </c>
+      <c r="N19">
+        <v>3.547775</v>
+      </c>
+      <c r="O19">
+        <v>0.04313039993528083</v>
+      </c>
+      <c r="P19">
+        <v>0.05046448405689858</v>
+      </c>
+      <c r="Q19">
+        <v>0.5420615857708333</v>
+      </c>
+      <c r="R19">
+        <v>3.252369514625</v>
+      </c>
+      <c r="S19">
+        <v>0.01165159253692712</v>
+      </c>
+      <c r="T19">
+        <v>0.009988000120881566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4583675</v>
+      </c>
+      <c r="H20">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J20">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.9545335</v>
+      </c>
+      <c r="N20">
+        <v>23.909067</v>
+      </c>
+      <c r="O20">
+        <v>0.4359947946767024</v>
+      </c>
+      <c r="P20">
+        <v>0.3400888529957002</v>
+      </c>
+      <c r="Q20">
+        <v>5.47956963406125</v>
+      </c>
+      <c r="R20">
+        <v>21.918278536245</v>
+      </c>
+      <c r="S20">
+        <v>0.1177831344809454</v>
+      </c>
+      <c r="T20">
+        <v>0.06731085372836933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.21879</v>
-      </c>
-      <c r="H16">
-        <v>0.43758</v>
-      </c>
-      <c r="I16">
-        <v>0.1221508691736779</v>
-      </c>
-      <c r="J16">
-        <v>0.08489039113638626</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.312462666666667</v>
-      </c>
-      <c r="N16">
-        <v>3.937388</v>
-      </c>
-      <c r="O16">
-        <v>0.034229279381366</v>
-      </c>
-      <c r="P16">
-        <v>0.04107776730272161</v>
-      </c>
-      <c r="Q16">
-        <v>0.28715370684</v>
-      </c>
-      <c r="R16">
-        <v>1.72292224104</v>
-      </c>
-      <c r="S16">
-        <v>0.004181136227622508</v>
-      </c>
-      <c r="T16">
-        <v>0.003487107733337495</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4583675</v>
+      </c>
+      <c r="H21">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J21">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5368526666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.610558</v>
+      </c>
+      <c r="O21">
+        <v>0.01957959866647858</v>
+      </c>
+      <c r="P21">
+        <v>0.022909000292778</v>
+      </c>
+      <c r="Q21">
+        <v>0.2460758146883333</v>
+      </c>
+      <c r="R21">
+        <v>1.47645488813</v>
+      </c>
+      <c r="S21">
+        <v>0.005289389990370944</v>
+      </c>
+      <c r="T21">
+        <v>0.00453418085946453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.050596</v>
+      </c>
+      <c r="I22">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J22">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.997753</v>
+      </c>
+      <c r="N22">
+        <v>38.993259</v>
+      </c>
+      <c r="O22">
+        <v>0.4740421406233454</v>
+      </c>
+      <c r="P22">
+        <v>0.5546503645614554</v>
+      </c>
+      <c r="Q22">
+        <v>0.2192114369293333</v>
+      </c>
+      <c r="R22">
+        <v>1.972902932364</v>
+      </c>
+      <c r="S22">
+        <v>0.004711941243544809</v>
+      </c>
+      <c r="T22">
+        <v>0.006058768734096707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.050596</v>
+      </c>
+      <c r="I23">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J23">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7472513333333333</v>
+      </c>
+      <c r="N23">
+        <v>2.241754</v>
+      </c>
+      <c r="O23">
+        <v>0.02725306609819269</v>
+      </c>
+      <c r="P23">
+        <v>0.03188729809316786</v>
+      </c>
+      <c r="Q23">
+        <v>0.01260264282044444</v>
+      </c>
+      <c r="R23">
+        <v>0.113423785384</v>
+      </c>
+      <c r="S23">
+        <v>0.0002708933133924904</v>
+      </c>
+      <c r="T23">
+        <v>0.0003483235152192902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.050596</v>
+      </c>
+      <c r="I24">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J24">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.182591666666666</v>
+      </c>
+      <c r="N24">
+        <v>3.547775</v>
+      </c>
+      <c r="O24">
+        <v>0.04313039993528083</v>
+      </c>
+      <c r="P24">
+        <v>0.05046448405689858</v>
+      </c>
+      <c r="Q24">
+        <v>0.01994480265555555</v>
+      </c>
+      <c r="R24">
+        <v>0.1795032239</v>
+      </c>
+      <c r="S24">
+        <v>0.0004287127512300826</v>
+      </c>
+      <c r="T24">
+        <v>0.0005512529292719528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.050596</v>
+      </c>
+      <c r="I25">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J25">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.9545335</v>
+      </c>
+      <c r="N25">
+        <v>23.909067</v>
+      </c>
+      <c r="O25">
+        <v>0.4359947946767024</v>
+      </c>
+      <c r="P25">
+        <v>0.3400888529957002</v>
+      </c>
+      <c r="Q25">
+        <v>0.201617192322</v>
+      </c>
+      <c r="R25">
+        <v>1.209703153932</v>
+      </c>
+      <c r="S25">
+        <v>0.00433375364541764</v>
+      </c>
+      <c r="T25">
+        <v>0.003714988470212847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.050596</v>
+      </c>
+      <c r="I26">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J26">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5368526666666666</v>
+      </c>
+      <c r="N26">
+        <v>1.610558</v>
+      </c>
+      <c r="O26">
+        <v>0.01957959866647858</v>
+      </c>
+      <c r="P26">
+        <v>0.022909000292778</v>
+      </c>
+      <c r="Q26">
+        <v>0.009054199174222222</v>
+      </c>
+      <c r="R26">
+        <v>0.081487792568</v>
+      </c>
+      <c r="S26">
+        <v>0.0001946196563185713</v>
+      </c>
+      <c r="T26">
+        <v>0.0002502483430494825</v>
       </c>
     </row>
   </sheetData>
